--- a/FAIR_output_data/Experiment 5/Experiment 5 - range of patch sizes - wind dispersal.xlsx
+++ b/FAIR_output_data/Experiment 5/Experiment 5 - range of patch sizes - wind dispersal.xlsx
@@ -5,20 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\DBR-sim\FAIR_output_data\Experiment 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\DBR-sim\FAIR_output_data\Experiment 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B8D62-94F7-4068-944F-5EDBA99F7A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8CC60A-8DA8-45D4-8DAD-6A6E0D8953DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EF2A2C3D-8059-4464-A956-197CB61270C0}"/>
+    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{EF2A2C3D-8059-4464-A956-197CB61270C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="t 1" sheetId="2" r:id="rId1"/>
-    <sheet name="t 2" sheetId="3" r:id="rId2"/>
-    <sheet name="t 3" sheetId="4" r:id="rId3"/>
-    <sheet name="t 4" sheetId="5" r:id="rId4"/>
-    <sheet name="t 5" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="7">
   <si>
     <r>
       <t>9 x 10</t>
@@ -215,45 +210,6 @@
     </r>
   </si>
   <si>
-    <t>T-toets: twee steekproeven met ongelijke varianties</t>
-  </si>
-  <si>
-    <t>Variabele 1</t>
-  </si>
-  <si>
-    <t>Variabele 2</t>
-  </si>
-  <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
-    <t>Variantie</t>
-  </si>
-  <si>
-    <t>Waarnemingen</t>
-  </si>
-  <si>
-    <t>Schatting van verschil tussen gemiddelden</t>
-  </si>
-  <si>
-    <t>Vrijheidsgraden</t>
-  </si>
-  <si>
-    <t>T- statistische gegevens</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) eenzijdig</t>
-  </si>
-  <si>
-    <t>Kritiek gebied van T-toets: eenzijdig</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) tweezijdig</t>
-  </si>
-  <si>
-    <t>Kritiek gebied van T-toets: tweezijdig</t>
-  </si>
-  <si>
     <t>uniformly random</t>
   </si>
   <si>
@@ -302,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,14 +274,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -362,47 +310,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,714 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B41672-4BB2-4B1D-B6B8-F5018228F5FB}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>267282.32</v>
-      </c>
-      <c r="C4" s="5">
-        <v>340079.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2427174.017959184</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1716420.4424489795</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>1557.9390289607563</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>1310.1223005692939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>95</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-252.87647598384552</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.762655433718801E-136</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6610518172772404</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3.5253108674376021E-136</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9852510035054973</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE9A3E5-C229-44E4-8A5F-9BBC8CBB0516}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>278542.48</v>
-      </c>
-      <c r="C4" s="5">
-        <v>331673.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1344274.9485714284</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1612767.8240816323</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>1159.4287164683426</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>1269.9479611707056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>97</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-218.47499431609728</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.0012347938297921E-132</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6607146101230255</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2.0024695876595843E-132</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9847231860139838</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687BC31C-9798-49AF-BA6F-8FF893C92C65}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>265246.87755102041</v>
-      </c>
-      <c r="C4" s="5">
-        <v>314414.81632653059</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5799762.3180272123</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3648059.9863945576</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>2408.269569219196</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>1909.9895252054546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>91</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-111.97322427565209</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.3990190822273966E-99</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6617711550616978</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2.7980381644547933E-99</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9863771544186202</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0544C117-FD08-4471-A01E-86DB1ACBF837}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>243734.14</v>
-      </c>
-      <c r="C4" s="5">
-        <v>301611.21999999997</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>49215554.612653069</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8137788.2159183659</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>7015.3798623205766</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>2852.6808822436424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-54.039615013198571</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4.7872767091206294E-56</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6686359758475535</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>9.5745534182412587E-56</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9971379083920051</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E6EAA1-E1C4-45A6-83B9-C6C7D49981E1}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>164538.18</v>
-      </c>
-      <c r="C4" s="5">
-        <v>274967.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1435191773.2118344</v>
-      </c>
-      <c r="C5" s="5">
-        <v>79474108.734693885</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>37883.924997442315</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>8914.8252217692916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-20.063643326592342</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5.3389300678579084E-27</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6735649063521589</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1.0677860135715817E-26</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2.0048792881880577</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BAC184-DE97-4ABD-82ED-82495AE2559C}">
   <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,16 +669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>340568</v>
@@ -1470,7 +686,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>339913</v>
@@ -1478,7 +694,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>341221</v>
@@ -1486,7 +702,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>338451</v>
@@ -1494,7 +710,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>340253</v>
@@ -1502,7 +718,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>340156</v>
@@ -1510,7 +726,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>340294</v>
@@ -1518,7 +734,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>338877</v>
@@ -1526,7 +742,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>341388</v>
@@ -1534,7 +750,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>340730</v>
@@ -1542,7 +758,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>341591</v>
@@ -1550,7 +766,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>340593</v>
@@ -1558,7 +774,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>341364</v>
@@ -1566,7 +782,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>339524</v>
@@ -1574,7 +790,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>341108</v>
@@ -1582,7 +798,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>339401</v>
@@ -1590,7 +806,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>340623</v>
@@ -1598,7 +814,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>339080</v>
@@ -1606,7 +822,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>337991</v>
@@ -1614,7 +830,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>339407</v>
@@ -1622,7 +838,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>337634</v>
@@ -1630,7 +846,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>336167</v>
@@ -1638,7 +854,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>341728</v>
@@ -1646,7 +862,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>339336</v>
@@ -1654,7 +870,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>341688</v>
@@ -1662,7 +878,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>341190</v>
@@ -1670,7 +886,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>339522</v>
@@ -1678,7 +894,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>340746</v>
@@ -1686,7 +902,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>339123</v>
@@ -1694,7 +910,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>340958</v>
@@ -1702,7 +918,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>338567</v>
@@ -1710,7 +926,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>339571</v>
@@ -1718,7 +934,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>341803</v>
@@ -1726,7 +942,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>343200</v>
@@ -1734,7 +950,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>340181</v>
@@ -1742,7 +958,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>341449</v>
@@ -1750,7 +966,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>341074</v>
@@ -1758,7 +974,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>341152</v>
@@ -1766,7 +982,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>339118</v>
@@ -1774,7 +990,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>341079</v>
@@ -1782,7 +998,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>339368</v>
@@ -1790,7 +1006,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>337963</v>
@@ -1798,7 +1014,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>340192</v>
@@ -1806,7 +1022,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>340652</v>
@@ -1814,7 +1030,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>339181</v>
@@ -1822,7 +1038,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>339524</v>
@@ -1830,7 +1046,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>338548</v>
@@ -1838,7 +1054,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>341403</v>
@@ -1846,7 +1062,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>340413</v>
@@ -1854,7 +1070,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>338891</v>
